--- a/specs/TestcasesButtons.xlsx
+++ b/specs/TestcasesButtons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap126\Documents\GitHub\martin2berlin_protractor\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C67819-27D7-4F0A-B01C-F177305C6D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0BCB87-A7C8-4F68-8D76-F76DE5D51619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9288" yWindow="0" windowWidth="13752" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/specs/TestcasesButtons.xlsx
+++ b/specs/TestcasesButtons.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap126\Documents\GitHub\martin2berlin_protractor\specs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0BCB87-A7C8-4F68-8D76-F76DE5D51619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9288" yWindow="0" windowWidth="13752" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9288" yWindow="0" windowWidth="13752" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t xml:space="preserve">Action </t>
   </si>
@@ -64,12 +58,24 @@
   </si>
   <si>
     <t>ExpectNumberOfRemaining</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Expect=Führe it aus, Status: Frage C und D ab</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,8 +114,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -376,18 +410,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +432,7 @@
     <col min="5" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,164 +445,170 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -577,6 +617,20 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>
